--- a/data/ExcelData/RangerTestSuite.xlsx
+++ b/data/ExcelData/RangerTestSuite.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">LoginAndLogoutUserAdminPageNegative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginAndLogoutUserAdminPageNegative2</t>
   </si>
 </sst>
 </file>
@@ -76,20 +82,39 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -118,12 +143,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -136,6 +165,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -144,51 +233,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.6020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
